--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bslagter/data2/code/klas/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2177EC51-3171-634E-97E3-49444D63C74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5537E-7832-0A42-845B-2AF891820338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{91608873-74F3-ED4F-8B53-A4B7519EA31A}"/>
   </bookViews>
@@ -33,64 +33,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Klas</t>
   </si>
   <si>
-    <t>Leerling</t>
-  </si>
-  <si>
     <t>Adres</t>
   </si>
   <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Straat 1</t>
-  </si>
-  <si>
-    <t>Levi</t>
-  </si>
-  <si>
-    <t>Straat 2</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Straat 3</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Straat 4</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>Straat 5</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>Straat 6</t>
-  </si>
-  <si>
-    <t>Tess</t>
+    <t>Leerlingnummer</t>
+  </si>
+  <si>
+    <t>1234 AB 3</t>
+  </si>
+  <si>
+    <t>1234 AB 1</t>
+  </si>
+  <si>
+    <t>1234 AB 2</t>
+  </si>
+  <si>
+    <t>1234 AB 4</t>
+  </si>
+  <si>
+    <t>1234 AB 5</t>
+  </si>
+  <si>
+    <t>1234 AB 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +77,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -125,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,28 +428,32 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -476,52 +463,52 @@
       <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+      <c r="B4" s="1">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="1">
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="1">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -531,21 +518,21 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
+      <c r="B8" s="1">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
